--- a/test_data/input.xlsx
+++ b/test_data/input.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Bhanu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\PycharmProjects\New_AFW\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F3D8E-4F2C-4BD7-8679-02147C728977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A655B5F1-6140-469A-9D2B-D6BD2CCD3991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="valid_login" sheetId="1" r:id="rId1"/>
+    <sheet name="invalid_login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,22 +26,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>urmila</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>urmilaklbhat@gmail.com</t>
+  </si>
+  <si>
+    <t>b4@p8A@b</t>
+  </si>
+  <si>
+    <t>urmilaklbhat@kkkk.com</t>
+  </si>
+  <si>
+    <t>abnchd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +90,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,25 +381,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65453AF6-BD91-44C6-A0AE-31CDFD92BA34}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D2F0D401-DC76-4508-8483-52E9038780CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/input.xlsx
+++ b/test_data/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\PycharmProjects\New_AFW\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A655B5F1-6140-469A-9D2B-D6BD2CCD3991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED615B-8499-4B78-9728-994F1870FC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valid_login" sheetId="1" r:id="rId1"/>
@@ -37,20 +37,20 @@
     <t>urmilaklbhat@gmail.com</t>
   </si>
   <si>
-    <t>b4@p8A@b</t>
-  </si>
-  <si>
     <t>urmilaklbhat@kkkk.com</t>
   </si>
   <si>
     <t>abnchd</t>
+  </si>
+  <si>
+    <t>bWJn#rBq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF334455"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,12 +101,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -384,7 +392,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -405,8 +413,8 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -441,10 +449,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
